--- a/DailyClassroomNotes/SVR and KNN/Parameters and Prediction.xlsx
+++ b/DailyClassroomNotes/SVR and KNN/Parameters and Prediction.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,17 +436,17 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Position</t>
+          <t>model</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Level</t>
+          <t>parameters</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Salary</t>
+          <t>predicted_Salary</t>
         </is>
       </c>
     </row>
@@ -456,14 +456,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jr Software Engineer</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
+          <t>Polynomial Regression</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>degree : 0</t>
+        </is>
       </c>
       <c r="D2" t="n">
-        <v>45000</v>
+        <v>249500</v>
       </c>
     </row>
     <row r="3">
@@ -472,14 +474,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sr Software Engineer</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
+          <t>Polynomial Regression</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>degree : 1</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>50000</v>
+        <v>249500</v>
       </c>
     </row>
     <row r="4">
@@ -488,14 +492,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Team Lead</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
+          <t>Polynomial Regression</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>degree : 2</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>60000</v>
+        <v>89187.49999999988</v>
       </c>
     </row>
     <row r="5">
@@ -504,14 +510,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Manager</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
+          <t>Polynomial Regression</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>degree : 3</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>80000</v>
+        <v>89187.50000000221</v>
       </c>
     </row>
     <row r="6">
@@ -520,14 +528,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sr manager</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
+          <t>Polynomial Regression</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>degree : 4</t>
+        </is>
       </c>
       <c r="D6" t="n">
-        <v>110000</v>
+        <v>132148.4375000239</v>
       </c>
     </row>
     <row r="7">
@@ -536,14 +546,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Region Manager</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
+          <t>Polynomial Regression</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>degree : 5</t>
+        </is>
       </c>
       <c r="D7" t="n">
-        <v>150000</v>
+        <v>132148.4375005987</v>
       </c>
     </row>
     <row r="8">
@@ -552,14 +564,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AVP</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>7</v>
+          <t>Polynomial Regression</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>degree : 6</t>
+        </is>
       </c>
       <c r="D8" t="n">
-        <v>200000</v>
+        <v>127625.7324206162</v>
       </c>
     </row>
     <row r="9">
@@ -568,14 +582,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>VP</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>8</v>
+          <t>Polynomial Regression</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>degree : 7</t>
+        </is>
       </c>
       <c r="D9" t="n">
-        <v>300000</v>
+        <v>127625.7324514904</v>
       </c>
     </row>
     <row r="10">
@@ -584,14 +600,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CTO</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>9</v>
+          <t>Polynomial Regression</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>degree : 8</t>
+        </is>
       </c>
       <c r="D10" t="n">
-        <v>500000</v>
+        <v>129396.1330418517</v>
       </c>
     </row>
     <row r="11">
@@ -600,14 +618,448 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CEO</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+          <t>Polynomial Regression</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>degree : 9</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>129396.1469717408</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D11" t="n">
-        <v>1000000</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Support Vector Regression</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Support Vector Regression</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>kernel = "poly", degree =4, gamma = "auto", C = 2.0)</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>116633.5752823831</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Support Vector Regression</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>kernel = "poly", degree =4, gamma = "auto", C = 2.0)</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Support Vector Regression</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>{'kernel': 'rbf', 'C': 1.0, 'gamma': 'scale'}</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Support Vector Regression</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>{'kernel': 'rbf', 'C': 10.0, 'gamma': 'auto'}</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Support Vector Regression</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>{'kernel': 'poly', 'degree': 3, 'C': 1.0, 'gamma': 'scale'}</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>129981.0835539254</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Support Vector Regression</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>{'kernel': 'linear', 'C': 1.0}</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Support Vector Regression</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>{'kernel': 'sigmoid', 'C': 1.0, 'gamma': 'scale', 'coef0': 0.0}</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>129999.9918805541</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>KNN Regression</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>{'n_neighbors': 4, 'weights': 'uniform', 'algorithm': 'ball_tree', 'leaf_size': 40, 'p': 3, 'metric': 'euclidean'}</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>KNN Regression</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>{'n_neighbors': 3, 'weights': 'distance', 'algorithm': 'auto', 'leaf_size': 30, 'p': 2, 'metric': 'minkowski'}</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>122857.1428571429</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>KNN Regression</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>{'n_neighbors': 5, 'weights': 'uniform', 'algorithm': 'kd_tree', 'leaf_size': 20, 'p': 1, 'metric': 'manhattan'}</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>KNN Regression</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>{'n_neighbors': 7, 'weights': 'distance', 'algorithm': 'ball_tree', 'leaf_size': 50, 'p': 3, 'metric': 'euclidean'}</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>134747.7744807122</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>KNN Regression</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>{'n_neighbors': 4, 'weights': 'uniform', 'algorithm': 'brute', 'leaf_size': 10, 'p': 2, 'metric': 'minkowski'}</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>DT Regression</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>{'n_neighbors': 6, 'weights': 'distance', 'algorithm': 'auto', 'leaf_size': 25, 'p': 1, 'metric': 'manhattan'}</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Decision Tree Regression</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>{'max_depth': 3, 'min_samples_split': 2, 'min_samples_leaf': 1, 'random_state': 42}</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Decision Tree Regression</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>{'max_depth': 5, 'min_samples_split': 3, 'criterion': 'friedman_mse', 'random_state': 42}</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Decision Tree Regression</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>{'max_depth': None, 'min_samples_split': 4, 'min_samples_leaf': 2, 'splitter': 'random', 'random_state': 42}</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>83333.33333333333</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Decision Tree Regression</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>{'max_depth': 4, 'criterion': 'absolute_error', 'min_samples_leaf': 3, 'random_state': 42}</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Decision Tree Regression</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>{'max_depth': 6, 'splitter': 'best', 'min_weight_fraction_leaf': 0.1, 'random_state': 42}</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Random Forest Regression</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 100, 'max_depth': 3, 'random_state': 42}</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>117867.5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Random Forest Regression</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 200, 'max_depth': 5, 'min_samples_split': 3, 'random_state': 42}</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>123755.8333333333</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Random Forest Regression</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 150, 'max_depth': None, 'min_samples_leaf': 2, 'random_state': 42}</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>134685.7936507937</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Random Forest Regression</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 300, 'criterion': 'absolute_error', 'max_features': 'sqrt', 'random_state': 42}</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>122633.3333333333</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Random Forest Regression</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 250, 'max_depth': 6, 'bootstrap': True, 'random_state': 42}</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>121560</v>
       </c>
     </row>
   </sheetData>
